--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -909,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111742299</v>
+        <v>111742278</v>
       </c>
       <c r="B4" t="n">
         <v>94134</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331807.7707727421</v>
+        <v>331818.8411813352</v>
       </c>
       <c r="R4" t="n">
-        <v>6626503.893626045</v>
+        <v>6626525.099085328</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742278</v>
+        <v>111742299</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331818.8411813352</v>
+        <v>331807.7707727421</v>
       </c>
       <c r="R5" t="n">
-        <v>6626525.099085328</v>
+        <v>6626503.893626045</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111742294</v>
+        <v>111742299</v>
       </c>
       <c r="B3" t="n">
         <v>94134</v>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331799.9927276275</v>
+        <v>331807.7707727421</v>
       </c>
       <c r="R3" t="n">
-        <v>6626510.806996167</v>
+        <v>6626503.893626045</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111742278</v>
+        <v>111742269</v>
       </c>
       <c r="B4" t="n">
         <v>94134</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331818.8411813352</v>
+        <v>331779.9179887357</v>
       </c>
       <c r="R4" t="n">
-        <v>6626525.099085328</v>
+        <v>6626525.342625097</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742299</v>
+        <v>111742294</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331807.7707727421</v>
+        <v>331799.9927276275</v>
       </c>
       <c r="R5" t="n">
-        <v>6626503.893626045</v>
+        <v>6626510.806996167</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742281</v>
+        <v>111742278</v>
       </c>
       <c r="B6" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,36 +1155,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1192,10 +1187,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331821.5503750234</v>
+        <v>331818.8411813352</v>
       </c>
       <c r="R6" t="n">
-        <v>6626517.909892835</v>
+        <v>6626525.099085328</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742269</v>
+        <v>111742281</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,31 +1272,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331779.9179887357</v>
+        <v>331821.5503750234</v>
       </c>
       <c r="R7" t="n">
-        <v>6626525.342625097</v>
+        <v>6626517.909892835</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -909,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111742269</v>
+        <v>111742294</v>
       </c>
       <c r="B4" t="n">
         <v>94134</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331779.9179887357</v>
+        <v>331799.9927276275</v>
       </c>
       <c r="R4" t="n">
-        <v>6626525.342625097</v>
+        <v>6626510.806996167</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742294</v>
+        <v>111742278</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331799.9927276275</v>
+        <v>331818.8411813352</v>
       </c>
       <c r="R5" t="n">
-        <v>6626510.806996167</v>
+        <v>6626525.099085328</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742278</v>
+        <v>111742281</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,31 +1155,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1187,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331818.8411813352</v>
+        <v>331821.5503750234</v>
       </c>
       <c r="R6" t="n">
-        <v>6626525.099085328</v>
+        <v>6626517.909892835</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742281</v>
+        <v>111742269</v>
       </c>
       <c r="B7" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,36 +1277,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331821.5503750234</v>
+        <v>331779.9179887357</v>
       </c>
       <c r="R7" t="n">
-        <v>6626517.909892835</v>
+        <v>6626525.342625097</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111742299</v>
+        <v>111742281</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,31 +804,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -836,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331807.7707727421</v>
+        <v>331821.5503750234</v>
       </c>
       <c r="R3" t="n">
-        <v>6626503.893626045</v>
+        <v>6626517.909892835</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1026,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742278</v>
+        <v>111742269</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1070,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331818.8411813352</v>
+        <v>331779.9179887357</v>
       </c>
       <c r="R5" t="n">
-        <v>6626525.099085328</v>
+        <v>6626525.342625097</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742281</v>
+        <v>111742278</v>
       </c>
       <c r="B6" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,36 +1160,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331821.5503750234</v>
+        <v>331818.8411813352</v>
       </c>
       <c r="R6" t="n">
-        <v>6626517.909892835</v>
+        <v>6626525.099085328</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742269</v>
+        <v>111742299</v>
       </c>
       <c r="B7" t="n">
         <v>94134</v>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331779.9179887357</v>
+        <v>331807.7707727421</v>
       </c>
       <c r="R7" t="n">
-        <v>6626525.342625097</v>
+        <v>6626503.893626045</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111742281</v>
+        <v>111742294</v>
       </c>
       <c r="B3" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,36 +804,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -841,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331821.5503750234</v>
+        <v>331799.9927276275</v>
       </c>
       <c r="R3" t="n">
-        <v>6626517.909892835</v>
+        <v>6626510.806996167</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111742294</v>
+        <v>111742278</v>
       </c>
       <c r="B4" t="n">
         <v>94134</v>
@@ -958,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331799.9927276275</v>
+        <v>331818.8411813352</v>
       </c>
       <c r="R4" t="n">
-        <v>6626510.806996167</v>
+        <v>6626525.099085328</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742269</v>
+        <v>111742299</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1075,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331779.9179887357</v>
+        <v>331807.7707727421</v>
       </c>
       <c r="R5" t="n">
-        <v>6626525.342625097</v>
+        <v>6626503.893626045</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742278</v>
+        <v>111742281</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,31 +1155,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331818.8411813352</v>
+        <v>331821.5503750234</v>
       </c>
       <c r="R6" t="n">
-        <v>6626525.099085328</v>
+        <v>6626517.909892835</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742299</v>
+        <v>111742269</v>
       </c>
       <c r="B7" t="n">
         <v>94134</v>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331807.7707727421</v>
+        <v>331779.9179887357</v>
       </c>
       <c r="R7" t="n">
-        <v>6626503.893626045</v>
+        <v>6626525.342625097</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111742294</v>
+        <v>111742281</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,31 +804,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -836,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331799.9927276275</v>
+        <v>331821.5503750234</v>
       </c>
       <c r="R3" t="n">
-        <v>6626510.806996167</v>
+        <v>6626517.909892835</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -909,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111742278</v>
+        <v>111742294</v>
       </c>
       <c r="B4" t="n">
         <v>94134</v>
@@ -953,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331818.8411813352</v>
+        <v>331799.9927276275</v>
       </c>
       <c r="R4" t="n">
-        <v>6626525.099085328</v>
+        <v>6626510.806996167</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742299</v>
+        <v>111742278</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1070,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331807.7707727421</v>
+        <v>331818.8411813352</v>
       </c>
       <c r="R5" t="n">
-        <v>6626503.893626045</v>
+        <v>6626525.099085328</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742281</v>
+        <v>111742269</v>
       </c>
       <c r="B6" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,36 +1160,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331821.5503750234</v>
+        <v>331779.9179887357</v>
       </c>
       <c r="R6" t="n">
-        <v>6626517.909892835</v>
+        <v>6626525.342625097</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742269</v>
+        <v>111742299</v>
       </c>
       <c r="B7" t="n">
         <v>94134</v>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331779.9179887357</v>
+        <v>331807.7707727421</v>
       </c>
       <c r="R7" t="n">
-        <v>6626525.342625097</v>
+        <v>6626503.893626045</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111742281</v>
+        <v>111742299</v>
       </c>
       <c r="B3" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,36 +804,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -841,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331821.5503750234</v>
+        <v>331807.7707727421</v>
       </c>
       <c r="R3" t="n">
-        <v>6626517.909892835</v>
+        <v>6626503.893626045</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111742294</v>
+        <v>111742278</v>
       </c>
       <c r="B4" t="n">
         <v>94134</v>
@@ -958,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331799.9927276275</v>
+        <v>331818.8411813352</v>
       </c>
       <c r="R4" t="n">
-        <v>6626510.806996167</v>
+        <v>6626525.099085328</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742278</v>
+        <v>111742294</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1075,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331818.8411813352</v>
+        <v>331799.9927276275</v>
       </c>
       <c r="R5" t="n">
-        <v>6626525.099085328</v>
+        <v>6626510.806996167</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1265,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742299</v>
+        <v>111742281</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,31 +1272,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331807.7707727421</v>
+        <v>331821.5503750234</v>
       </c>
       <c r="R7" t="n">
-        <v>6626503.893626045</v>
+        <v>6626517.909892835</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111742299</v>
+        <v>111742269</v>
       </c>
       <c r="B3" t="n">
         <v>94134</v>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331807.7707727421</v>
+        <v>331779.9179887357</v>
       </c>
       <c r="R3" t="n">
-        <v>6626503.893626045</v>
+        <v>6626525.342625097</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742294</v>
+        <v>111742299</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331799.9927276275</v>
+        <v>331807.7707727421</v>
       </c>
       <c r="R5" t="n">
-        <v>6626510.806996167</v>
+        <v>6626503.893626045</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742269</v>
+        <v>111742281</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,31 +1155,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1187,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331779.9179887357</v>
+        <v>331821.5503750234</v>
       </c>
       <c r="R6" t="n">
-        <v>6626525.342625097</v>
+        <v>6626517.909892835</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742281</v>
+        <v>111742294</v>
       </c>
       <c r="B7" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,36 +1277,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331821.5503750234</v>
+        <v>331799.9927276275</v>
       </c>
       <c r="R7" t="n">
-        <v>6626517.909892835</v>
+        <v>6626510.806996167</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111742269</v>
+        <v>111742294</v>
       </c>
       <c r="B3" t="n">
         <v>94134</v>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331779.9179887357</v>
+        <v>331799.9927276275</v>
       </c>
       <c r="R3" t="n">
-        <v>6626525.342625097</v>
+        <v>6626510.806996167</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111742278</v>
+        <v>111742281</v>
       </c>
       <c r="B4" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,31 +921,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -953,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331818.8411813352</v>
+        <v>331821.5503750234</v>
       </c>
       <c r="R4" t="n">
-        <v>6626525.099085328</v>
+        <v>6626517.909892835</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742299</v>
+        <v>111742269</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1070,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331807.7707727421</v>
+        <v>331779.9179887357</v>
       </c>
       <c r="R5" t="n">
-        <v>6626503.893626045</v>
+        <v>6626525.342625097</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742281</v>
+        <v>111742278</v>
       </c>
       <c r="B6" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,36 +1160,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331821.5503750234</v>
+        <v>331818.8411813352</v>
       </c>
       <c r="R6" t="n">
-        <v>6626517.909892835</v>
+        <v>6626525.099085328</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742294</v>
+        <v>111742299</v>
       </c>
       <c r="B7" t="n">
         <v>94134</v>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331799.9927276275</v>
+        <v>331807.7707727421</v>
       </c>
       <c r="R7" t="n">
-        <v>6626510.806996167</v>
+        <v>6626503.893626045</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331799.9927276275</v>
+        <v>331800</v>
       </c>
       <c r="R3" t="n">
-        <v>6626510.806996167</v>
+        <v>6626511</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,19 +869,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111742281</v>
+        <v>111742278</v>
       </c>
       <c r="B4" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,36 +911,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -958,10 +943,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331821.5503750234</v>
+        <v>331819</v>
       </c>
       <c r="R4" t="n">
-        <v>6626517.909892835</v>
+        <v>6626525</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -991,19 +976,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1031,7 +1006,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111742269</v>
+        <v>111742299</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1075,10 +1050,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331779.9179887357</v>
+        <v>331808</v>
       </c>
       <c r="R5" t="n">
-        <v>6626525.342625097</v>
+        <v>6626504</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1108,19 +1083,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1148,10 +1113,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742278</v>
+        <v>111742281</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,31 +1125,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1192,10 +1162,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331818.8411813352</v>
+        <v>331822</v>
       </c>
       <c r="R6" t="n">
-        <v>6626525.099085328</v>
+        <v>6626518</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1225,19 +1195,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1265,7 +1225,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742299</v>
+        <v>111742269</v>
       </c>
       <c r="B7" t="n">
         <v>94134</v>
@@ -1309,10 +1269,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331807.7707727421</v>
+        <v>331780</v>
       </c>
       <c r="R7" t="n">
-        <v>6626503.893626045</v>
+        <v>6626525</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1342,19 +1302,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 36377-2021.xlsx
+++ b/artfynd/A 36377-2021.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111742294</v>
+        <v>111742269</v>
       </c>
       <c r="B3" t="n">
         <v>94134</v>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331800</v>
+        <v>331780</v>
       </c>
       <c r="R3" t="n">
-        <v>6626511</v>
+        <v>6626525</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111742278</v>
+        <v>111742281</v>
       </c>
       <c r="B4" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -911,31 +911,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -943,10 +948,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331819</v>
+        <v>331822</v>
       </c>
       <c r="R4" t="n">
-        <v>6626525</v>
+        <v>6626518</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1113,10 +1118,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742281</v>
+        <v>111742294</v>
       </c>
       <c r="B6" t="n">
-        <v>4711</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1125,36 +1130,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100299</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331822</v>
+        <v>331800</v>
       </c>
       <c r="R6" t="n">
-        <v>6626518</v>
+        <v>6626511</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742269</v>
+        <v>111742278</v>
       </c>
       <c r="B7" t="n">
         <v>94134</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331780</v>
+        <v>331819</v>
       </c>
       <c r="R7" t="n">
         <v>6626525</v>
